--- a/صيدليات دكتور مصطفي طلعت_2026-01-05_20-51.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-05_20-51.xlsx
@@ -350,6 +350,9 @@
     <t>REPASEEN CREAM CREAM</t>
   </si>
   <si>
+    <t>RESTOHERB SYRUP</t>
+  </si>
+  <si>
     <t>RHINEX 0.05% INFANTILE NASAL DROPS 10 ML</t>
   </si>
   <si>
@@ -443,7 +446,7 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>6:1</t>
+    <t>5:3</t>
   </si>
   <si>
     <t>VONSECA 20MG 14 TAB</t>
@@ -3458,13 +3461,13 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>18</v>
+        <v>43.649999999999999</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="10">
@@ -3484,17 +3487,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>14.1</v>
+        <v>18</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="10">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3502,7 +3505,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3510,17 +3513,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>130</v>
+        <v>14.1</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="10">
-        <v>2</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3536,17 +3539,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="M96" s="9"/>
       <c r="N96" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3568,7 +3571,7 @@
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>33.600000000000001</v>
+        <v>60</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="10">
@@ -3594,7 +3597,7 @@
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>138</v>
+        <v>33.600000000000001</v>
       </c>
       <c r="M98" s="9"/>
       <c r="N98" s="10">
@@ -3614,13 +3617,13 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="10">
@@ -3632,7 +3635,7 @@
         <v>97</v>
       </c>
       <c t="s" r="B100" s="7">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3640,17 +3643,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="M100" s="9"/>
       <c r="N100" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3658,7 +3661,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B101" s="7">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3666,17 +3669,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>149.5</v>
+        <v>21</v>
       </c>
       <c r="M101" s="9"/>
       <c r="N101" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3692,17 +3695,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>62</v>
+        <v>149.5</v>
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3718,17 +3721,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="M103" s="9"/>
       <c r="N103" s="10">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3744,17 +3747,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c r="M104" s="9"/>
       <c r="N104" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3770,13 +3773,13 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="M105" s="9"/>
       <c r="N105" s="10">
@@ -3796,17 +3799,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>273</v>
+        <v>140</v>
       </c>
       <c r="M106" s="9"/>
       <c r="N106" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3822,17 +3825,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>60</v>
+        <v>273</v>
       </c>
       <c r="M107" s="9"/>
       <c r="N107" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3854,7 +3857,7 @@
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>234</v>
+        <v>60</v>
       </c>
       <c r="M108" s="9"/>
       <c r="N108" s="10">
@@ -3874,17 +3877,17 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>288</v>
+        <v>234</v>
       </c>
       <c r="M109" s="9"/>
       <c r="N109" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -3900,17 +3903,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="M110" s="9"/>
       <c r="N110" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -3926,17 +3929,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="M111" s="9"/>
       <c r="N111" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -3952,13 +3955,13 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>97.019999999999996</v>
+        <v>80</v>
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="10">
@@ -3970,7 +3973,7 @@
         <v>110</v>
       </c>
       <c t="s" r="B113" s="7">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -3978,17 +3981,17 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>95</v>
+        <v>97.019999999999996</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="114" ht="24.75" customHeight="1">
@@ -4010,11 +4013,11 @@
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="M114" s="9"/>
       <c r="N114" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" ht="25.5" customHeight="1">
@@ -4030,17 +4033,17 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="10">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" ht="24.75" customHeight="1">
@@ -4056,17 +4059,17 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4082,17 +4085,17 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="M117" s="9"/>
       <c r="N117" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
@@ -4108,17 +4111,17 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="M118" s="9"/>
       <c r="N118" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="119" ht="24.75" customHeight="1">
@@ -4134,17 +4137,17 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M119" s="9"/>
       <c r="N119" s="10">
-        <v>0.66000000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" ht="25.5" customHeight="1">
@@ -4152,7 +4155,7 @@
         <v>117</v>
       </c>
       <c t="s" r="B120" s="7">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -4160,17 +4163,17 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="M120" s="9"/>
       <c r="N120" s="10">
-        <v>0.5</v>
+        <v>0.98999999999999999</v>
       </c>
     </row>
     <row r="121" ht="24.75" customHeight="1">
@@ -4186,17 +4189,17 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>42.280000000000001</v>
+        <v>70</v>
       </c>
       <c r="M121" s="9"/>
       <c r="N121" s="10">
-        <v>17</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -4204,7 +4207,7 @@
         <v>119</v>
       </c>
       <c t="s" r="B122" s="7">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -4212,17 +4215,17 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>63</v>
+        <v>42.280000000000001</v>
       </c>
       <c r="M122" s="9"/>
       <c r="N122" s="10">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" ht="25.5" customHeight="1">
@@ -4238,13 +4241,13 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>245</v>
+        <v>63</v>
       </c>
       <c r="M123" s="9"/>
       <c r="N123" s="10">
@@ -4264,13 +4267,13 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>120</v>
+        <v>245</v>
       </c>
       <c r="M124" s="9"/>
       <c r="N124" s="10">
@@ -4290,13 +4293,13 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c t="s" r="H125" s="8">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="9">
-        <v>23.5</v>
+        <v>120</v>
       </c>
       <c r="M125" s="9"/>
       <c r="N125" s="10">
@@ -4308,7 +4311,7 @@
         <v>123</v>
       </c>
       <c t="s" r="B126" s="7">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -4316,13 +4319,13 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c t="s" r="H126" s="8">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>15</v>
+        <v>23.5</v>
       </c>
       <c r="M126" s="9"/>
       <c r="N126" s="10">
@@ -4342,13 +4345,13 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="9">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M127" s="9"/>
       <c r="N127" s="10">
@@ -4360,7 +4363,7 @@
         <v>125</v>
       </c>
       <c t="s" r="B128" s="7">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -4368,13 +4371,13 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c t="s" r="H128" s="8">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="9">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="M128" s="9"/>
       <c r="N128" s="10">
@@ -4394,17 +4397,17 @@
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c t="s" r="H129" s="8">
-        <v>158</v>
+        <v>8</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="9">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="M129" s="9"/>
       <c r="N129" s="10">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" ht="25.5" customHeight="1">
@@ -4412,7 +4415,7 @@
         <v>127</v>
       </c>
       <c t="s" r="B130" s="7">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -4420,17 +4423,17 @@
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c t="s" r="H130" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="9">
-        <v>25.98</v>
+        <v>56</v>
       </c>
       <c r="M130" s="9"/>
       <c r="N130" s="10">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" ht="24.75" customHeight="1">
@@ -4438,7 +4441,7 @@
         <v>128</v>
       </c>
       <c t="s" r="B131" s="7">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -4446,17 +4449,17 @@
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c t="s" r="H131" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="9">
-        <v>26</v>
+        <v>25.98</v>
       </c>
       <c r="M131" s="9"/>
       <c r="N131" s="10">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -4464,7 +4467,7 @@
         <v>129</v>
       </c>
       <c t="s" r="B132" s="7">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -4472,17 +4475,17 @@
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c t="s" r="H132" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
       <c r="L132" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M132" s="9"/>
       <c r="N132" s="10">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" ht="25.5" customHeight="1">
@@ -4490,7 +4493,7 @@
         <v>130</v>
       </c>
       <c t="s" r="B133" s="7">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -4498,17 +4501,17 @@
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c t="s" r="H133" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I133" s="8"/>
       <c r="J133" s="8"/>
       <c r="K133" s="8"/>
       <c r="L133" s="9">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M133" s="9"/>
       <c r="N133" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" ht="24.75" customHeight="1">
@@ -4516,7 +4519,7 @@
         <v>131</v>
       </c>
       <c t="s" r="B134" s="7">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -4524,17 +4527,17 @@
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c t="s" r="H134" s="8">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
       <c r="L134" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="M134" s="9"/>
       <c r="N134" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" ht="25.5" customHeight="1">
@@ -4550,13 +4553,13 @@
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c t="s" r="H135" s="8">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
       <c r="L135" s="9">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M135" s="9"/>
       <c r="N135" s="10">
@@ -4568,7 +4571,7 @@
         <v>133</v>
       </c>
       <c t="s" r="B136" s="7">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
@@ -4576,13 +4579,13 @@
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c t="s" r="H136" s="8">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="I136" s="8"/>
       <c r="J136" s="8"/>
       <c r="K136" s="8"/>
       <c r="L136" s="9">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="M136" s="9"/>
       <c r="N136" s="10">
@@ -4602,13 +4605,13 @@
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c t="s" r="H137" s="8">
-        <v>172</v>
+        <v>8</v>
       </c>
       <c r="I137" s="8"/>
       <c r="J137" s="8"/>
       <c r="K137" s="8"/>
       <c r="L137" s="9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M137" s="9"/>
       <c r="N137" s="10">
@@ -4620,7 +4623,7 @@
         <v>135</v>
       </c>
       <c t="s" r="B138" s="7">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
@@ -4628,17 +4631,17 @@
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
       <c t="s" r="H138" s="8">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="I138" s="8"/>
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
       <c r="L138" s="9">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="M138" s="9"/>
       <c r="N138" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" ht="24.75" customHeight="1">
@@ -4654,17 +4657,17 @@
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
       <c t="s" r="H139" s="8">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="I139" s="8"/>
       <c r="J139" s="8"/>
       <c r="K139" s="8"/>
       <c r="L139" s="9">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="M139" s="9"/>
       <c r="N139" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" ht="25.5" customHeight="1">
@@ -4672,7 +4675,7 @@
         <v>137</v>
       </c>
       <c t="s" r="B140" s="7">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
@@ -4680,13 +4683,13 @@
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
       <c t="s" r="H140" s="8">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="I140" s="8"/>
       <c r="J140" s="8"/>
       <c r="K140" s="8"/>
       <c r="L140" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M140" s="9"/>
       <c r="N140" s="10">
@@ -4706,13 +4709,13 @@
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
       <c t="s" r="H141" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I141" s="8"/>
       <c r="J141" s="8"/>
       <c r="K141" s="8"/>
       <c r="L141" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M141" s="9"/>
       <c r="N141" s="10">
@@ -4732,13 +4735,13 @@
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
       <c t="s" r="H142" s="8">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="I142" s="8"/>
       <c r="J142" s="8"/>
       <c r="K142" s="8"/>
       <c r="L142" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M142" s="9"/>
       <c r="N142" s="10">
@@ -4758,51 +4761,77 @@
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
       <c t="s" r="H143" s="8">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="I143" s="8"/>
       <c r="J143" s="8"/>
       <c r="K143" s="8"/>
       <c r="L143" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M143" s="9"/>
       <c r="N143" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="144" ht="25.5" customHeight="1">
-      <c r="K144" s="11">
-        <v>12896.549999999999</v>
-      </c>
-      <c r="L144" s="11"/>
-      <c r="M144" s="11"/>
-      <c r="N144" s="11"/>
-    </row>
-    <row r="145" ht="16.5" customHeight="1">
-      <c t="s" r="A145" s="12">
+    <row r="144" ht="24.75" customHeight="1">
+      <c r="A144" s="6">
+        <v>141</v>
+      </c>
+      <c t="s" r="B144" s="7">
         <v>180</v>
       </c>
-      <c r="B145" s="12"/>
-      <c r="C145" s="12"/>
-      <c r="D145" s="12"/>
-      <c r="E145" s="12"/>
-      <c t="s" r="F145" s="13">
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="7"/>
+      <c r="G144" s="7"/>
+      <c t="s" r="H144" s="8">
+        <v>11</v>
+      </c>
+      <c r="I144" s="8"/>
+      <c r="J144" s="8"/>
+      <c r="K144" s="8"/>
+      <c r="L144" s="9">
+        <v>300</v>
+      </c>
+      <c r="M144" s="9"/>
+      <c r="N144" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" ht="26.25" customHeight="1">
+      <c r="K145" s="11">
+        <v>12957.200000000001</v>
+      </c>
+      <c r="L145" s="11"/>
+      <c r="M145" s="11"/>
+      <c r="N145" s="11"/>
+    </row>
+    <row r="146" ht="16.5" customHeight="1">
+      <c t="s" r="A146" s="12">
         <v>181</v>
       </c>
-      <c r="G145" s="13"/>
-      <c r="H145" s="14"/>
-      <c t="s" r="I145" s="15">
+      <c r="B146" s="12"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
+      <c t="s" r="F146" s="13">
         <v>182</v>
       </c>
-      <c r="J145" s="15"/>
-      <c r="K145" s="15"/>
-      <c r="L145" s="15"/>
-      <c r="M145" s="15"/>
-      <c r="N145" s="15"/>
+      <c r="G146" s="13"/>
+      <c r="H146" s="14"/>
+      <c t="s" r="I146" s="15">
+        <v>183</v>
+      </c>
+      <c r="J146" s="15"/>
+      <c r="K146" s="15"/>
+      <c r="L146" s="15"/>
+      <c r="M146" s="15"/>
+      <c r="N146" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="431">
+  <mergeCells count="434">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -5230,10 +5259,13 @@
     <mergeCell ref="B143:G143"/>
     <mergeCell ref="H143:K143"/>
     <mergeCell ref="L143:M143"/>
-    <mergeCell ref="K144:N144"/>
-    <mergeCell ref="A145:E145"/>
-    <mergeCell ref="F145:G145"/>
-    <mergeCell ref="I145:N145"/>
+    <mergeCell ref="B144:G144"/>
+    <mergeCell ref="H144:K144"/>
+    <mergeCell ref="L144:M144"/>
+    <mergeCell ref="K145:N145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="I146:N146"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
